--- a/biology/Médecine/Camille_Georges_Wermuth/Camille_Georges_Wermuth.xlsx
+++ b/biology/Médecine/Camille_Georges_Wermuth/Camille_Georges_Wermuth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Camille Georges Wermuth (1933-2015) est un pharmacien et chimiste français, spécialiste de la chimie médicinale. Il a été professeur à la faculté de pharmacie de Strasbourg[1]. Le Professeur Wermuth est décédé le 22 septembre 2015, à l'âge de 82 ans[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Camille Georges Wermuth (1933-2015) est un pharmacien et chimiste français, spécialiste de la chimie médicinale. Il a été professeur à la faculté de pharmacie de Strasbourg. Le Professeur Wermuth est décédé le 22 septembre 2015, à l'âge de 82 ans.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fait ses études à l'Université de Strasbourg où il a obtenu son PhD en chimie organique en 1964. Il a par la suite été professeur de chimie organique et de chimie médicinale dans cette même université.
-Son influence dans le développement de la chimie médicinale et dans son implication dans de nombreux projets est largement reconnu par ses pairs[3].
+Son influence dans le développement de la chimie médicinale et dans son implication dans de nombreux projets est largement reconnu par ses pairs.
 Il a créé et dirigé pendant 27 ans l'unité de pharmacochimie moléculaire du CNRS qui aboutit à la découverte, le développement et la synthèse de la minaprine.
 Il a également présidé la « section de chimie médicinale » de l'IUPAC de 1988 à 1992 et celle de « chimie et santé humaine » de 1998 à 2000.
 Il est l'auteur de nombreuses publications scientifiques dans le domaine de la chimie organique et de la pharmacochimie ainsi que du livre The Practice of Medicinal Chemistry dont 4 éditions ont été tirées.
@@ -546,7 +560,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Charles Mentzer de la Société Française de Chimie Thérapeutique en 1984
 Prix Léon-Velluz de l'Académie des sciences en 1995
